--- a/BioactivityModels/HDAC6/models/Regression/OUTPUT/TestSet_EvaluationResults.xlsx
+++ b/BioactivityModels/HDAC6/models/Regression/OUTPUT/TestSet_EvaluationResults.xlsx
@@ -514,40 +514,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6980775111863846</v>
+        <v>0.7017071858682173</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7133157875081497</v>
+        <v>0.7005148287102435</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7031919120632364</v>
+        <v>0.6769025930710013</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6638236489941645</v>
+        <v>0.7182490848901308</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6998156225128196</v>
+        <v>0.6639445638488575</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7025307603131273</v>
+        <v>0.7076615276423438</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7061999757875861</v>
+        <v>0.7028291691787015</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6850200270254123</v>
+        <v>0.6857917403047502</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6805068827021239</v>
+        <v>0.702509431342095</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7145763241010967</v>
+        <v>0.7125573274110534</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6967058452194103</v>
+        <v>0.6972667452267395</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01582240730710713</v>
+        <v>0.01675824196178288</v>
       </c>
     </row>
     <row r="3">
@@ -560,40 +560,40 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>345</v>
+      </c>
+      <c r="D3" t="n">
+        <v>333</v>
+      </c>
+      <c r="E3" t="n">
+        <v>339</v>
+      </c>
+      <c r="F3" t="n">
+        <v>336</v>
+      </c>
+      <c r="G3" t="n">
+        <v>333</v>
+      </c>
+      <c r="H3" t="n">
+        <v>344</v>
+      </c>
+      <c r="I3" t="n">
+        <v>333</v>
+      </c>
+      <c r="J3" t="n">
+        <v>340</v>
+      </c>
+      <c r="K3" t="n">
+        <v>320</v>
+      </c>
+      <c r="L3" t="n">
         <v>329</v>
       </c>
-      <c r="D3" t="n">
-        <v>336</v>
-      </c>
-      <c r="E3" t="n">
-        <v>308</v>
-      </c>
-      <c r="F3" t="n">
-        <v>319</v>
-      </c>
-      <c r="G3" t="n">
-        <v>340</v>
-      </c>
-      <c r="H3" t="n">
-        <v>323</v>
-      </c>
-      <c r="I3" t="n">
-        <v>332</v>
-      </c>
-      <c r="J3" t="n">
-        <v>317</v>
-      </c>
-      <c r="K3" t="n">
-        <v>330</v>
-      </c>
-      <c r="L3" t="n">
-        <v>338</v>
-      </c>
       <c r="M3" t="n">
-        <v>327.2</v>
+        <v>335.2</v>
       </c>
       <c r="N3" t="n">
-        <v>10.27186015827275</v>
+        <v>7.420691791650335</v>
       </c>
     </row>
     <row r="4">
@@ -606,40 +606,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D4" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E4" t="n">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="F4" t="n">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G4" t="n">
         <v>170</v>
       </c>
       <c r="H4" t="n">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="I4" t="n">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J4" t="n">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="K4" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L4" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M4" t="n">
-        <v>181</v>
+        <v>174.3</v>
       </c>
       <c r="N4" t="n">
-        <v>8.628119403696523</v>
+        <v>8.313977521152088</v>
       </c>
     </row>
     <row r="5">
@@ -652,40 +652,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F5" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G5" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I5" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="J5" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K5" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L5" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M5" t="n">
-        <v>50.2</v>
+        <v>51.7</v>
       </c>
       <c r="N5" t="n">
-        <v>8.323994767471257</v>
+        <v>6.23698645180507</v>
       </c>
     </row>
     <row r="6">
@@ -698,40 +698,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
         <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
         <v>31</v>
       </c>
       <c r="H6" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I6" t="n">
+        <v>34</v>
+      </c>
+      <c r="J6" t="n">
         <v>35</v>
       </c>
-      <c r="J6" t="n">
-        <v>43</v>
-      </c>
       <c r="K6" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M6" t="n">
-        <v>36.6</v>
+        <v>33.8</v>
       </c>
       <c r="N6" t="n">
-        <v>4.765617600176404</v>
+        <v>1.932183566158592</v>
       </c>
     </row>
     <row r="7">
@@ -744,40 +744,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8705882352941177</v>
+        <v>0.865546218487395</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8672268907563025</v>
+        <v>0.865546218487395</v>
       </c>
       <c r="E7" t="n">
-        <v>0.838655462184874</v>
+        <v>0.8504201680672269</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8487394957983193</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8453781512605042</v>
       </c>
       <c r="H7" t="n">
         <v>0.8588235294117647</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8352941176470589</v>
+        <v>0.865546218487395</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8453781512605042</v>
+        <v>0.8436974789915966</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8504201680672269</v>
+        <v>0.8470588235294118</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8689075630252101</v>
+        <v>0.8638655462184874</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8541176470588233</v>
+        <v>0.8563025210084033</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01249689052647501</v>
+        <v>0.008937286349324284</v>
       </c>
     </row>
     <row r="8">
@@ -790,40 +790,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.896457765667575</v>
+        <v>0.8914728682170543</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8865435356200527</v>
+        <v>0.8740157480314961</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8324324324324325</v>
+        <v>0.8604060913705583</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8506666666666667</v>
+        <v>0.865979381443299</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8629441624365483</v>
+        <v>0.8451776649746193</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8801089918256131</v>
+        <v>0.8708860759493671</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8405063291139241</v>
+        <v>0.8786279683377308</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8661202185792349</v>
+        <v>0.8542713567839196</v>
       </c>
       <c r="K8" t="n">
-        <v>0.88</v>
+        <v>0.8465608465608465</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8756476683937824</v>
+        <v>0.8773333333333333</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8671427770735829</v>
+        <v>0.8664731335002225</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02067195271400006</v>
+        <v>0.01491817712461828</v>
       </c>
     </row>
     <row r="9">
@@ -836,40 +836,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8940217391304348</v>
+        <v>0.9007832898172323</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9123287671232877</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9005847953216374</v>
+        <v>0.9088471849865952</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9036827195467422</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9164420485175202</v>
+        <v>0.9148351648351648</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8898071625344353</v>
+        <v>0.9124668435013262</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9046321525885559</v>
+        <v>0.9073569482288828</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8805555555555555</v>
+        <v>0.9066666666666666</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.9065155807365439</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9184782608695652</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8993783181692528</v>
+        <v>0.9084215705432911</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01283583490087493</v>
+        <v>0.004277607597974155</v>
       </c>
     </row>
     <row r="10">
@@ -882,40 +882,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8326</v>
+        <v>0.8018999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8072</v>
+        <v>0.7913</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7549</v>
+        <v>0.7523</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7685999999999999</v>
+        <v>0.7699</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7589</v>
+        <v>0.7359</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8103</v>
+        <v>0.7661</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7237</v>
+        <v>0.7982</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7915</v>
+        <v>0.7364000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7964</v>
+        <v>0.7603</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7885</v>
+        <v>0.8008999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7832600000000001</v>
+        <v>0.7713199999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03191437154498129</v>
+        <v>0.02564348736900743</v>
       </c>
     </row>
     <row r="11">
@@ -928,40 +928,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8952380952380953</v>
+        <v>0.8961038961038962</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8948069241011984</v>
+        <v>0.8927613941018767</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8651685393258428</v>
+        <v>0.8839634941329857</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8763736263736265</v>
+        <v>0.8877146631439894</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8786279683377308</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8849315068493151</v>
+        <v>0.8911917098445595</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8713910761154856</v>
+        <v>0.8927613941018766</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8732782369146005</v>
+        <v>0.8796895213454076</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8811748998664888</v>
+        <v>0.8755129958960328</v>
       </c>
       <c r="L11" t="n">
-        <v>0.896551724137931</v>
+        <v>0.8903924221921515</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8827803517811473</v>
+        <v>0.8868719459200506</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01108167423925972</v>
+        <v>0.007019018738235537</v>
       </c>
     </row>
     <row r="12">
@@ -974,40 +974,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.870642410810478</v>
+        <v>0.8652551929862855</v>
       </c>
       <c r="D12" t="n">
-        <v>0.86678711801504</v>
+        <v>0.8645654914382245</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8371023949046499</v>
+        <v>0.8487548965604161</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8474235848185429</v>
+        <v>0.8558013691197127</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8554248366013072</v>
+        <v>0.8430691361856968</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8585965035210035</v>
+        <v>0.8574296843213571</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8329326343827692</v>
+        <v>0.864810673200517</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8450173742908392</v>
+        <v>0.8417123063917461</v>
       </c>
       <c r="K12" t="n">
-        <v>0.850350429446367</v>
+        <v>0.8455090320061753</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8677662903187215</v>
+        <v>0.8632185492435199</v>
       </c>
       <c r="M12" t="n">
-        <v>0.853204357710972</v>
+        <v>0.8550126331453651</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01296764190761385</v>
+        <v>0.009516030542506543</v>
       </c>
     </row>
     <row r="13">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.863003663003663</v>
+        <v>0.8528138528138528</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8574262410938794</v>
+        <v>0.8562906069608482</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8321658596210804</v>
+        <v>0.8367808014400153</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8407842157842158</v>
+        <v>0.8457049066297314</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8444444444444444</v>
+        <v>0.832832502687384</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8511614055985706</v>
+        <v>0.8451173860227582</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8212095567493316</v>
+        <v>0.8562906069608482</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8375011874228175</v>
+        <v>0.8283339693057974</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8396804204547863</v>
+        <v>0.8386279576430056</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8588263207845619</v>
+        <v>0.8553957676370958</v>
       </c>
       <c r="M13" t="n">
-        <v>0.844620331495735</v>
+        <v>0.8448188358101337</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01307900725672463</v>
+        <v>0.0103184251520614</v>
       </c>
     </row>
     <row r="14">
@@ -1066,40 +1066,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8633104290365831</v>
+        <v>0.8513350411350313</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8552003471719948</v>
+        <v>0.8518165574746873</v>
       </c>
       <c r="E14" t="n">
-        <v>0.827762753392044</v>
+        <v>0.8305497186194237</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8361388804345281</v>
+        <v>0.8402403050579178</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8376853099730458</v>
+        <v>0.8253829503829504</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8500759950603211</v>
+        <v>0.839260944686443</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8141581815574359</v>
+        <v>0.8528012811319853</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8360224586288416</v>
+        <v>0.8215151515151515</v>
       </c>
       <c r="K14" t="n">
-        <v>0.839366515837104</v>
+        <v>0.8334230796244704</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8535122581880865</v>
+        <v>0.8523559773559773</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8413233129279984</v>
+        <v>0.8398681006984038</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0145107616749617</v>
+        <v>0.01189303531465159</v>
       </c>
     </row>
     <row r="15">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7260127416114395</v>
+        <v>0.7057187079675192</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7151230855920278</v>
+        <v>0.7139819721679305</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6682989633704093</v>
+        <v>0.6760075571314746</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6840956145001237</v>
+        <v>0.6933972611186513</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6918421034177515</v>
+        <v>0.6705564288237064</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7024075595211582</v>
+        <v>0.6920687494282464</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6466440414469073</v>
+        <v>0.7133688216833522</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6751887515886641</v>
+        <v>0.6596047353950388</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6793662204867574</v>
+        <v>0.6805263143430883</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7194564591248469</v>
+        <v>0.7114450244009947</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6908435540660085</v>
+        <v>0.6916675572460002</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0250864754689464</v>
+        <v>0.01944702505419253</v>
       </c>
     </row>
     <row r="16">
@@ -1158,40 +1158,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8289</v>
+        <v>0.8173</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8333</v>
+        <v>0.8505</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8489</v>
+        <v>0.8308</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8455</v>
+        <v>0.8406</v>
       </c>
       <c r="G16" t="n">
         <v>0.8458</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8246</v>
+        <v>0.835</v>
       </c>
       <c r="I16" t="n">
-        <v>0.825</v>
+        <v>0.8426</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8122</v>
+        <v>0.8223</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8</v>
+        <v>0.8479</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8565</v>
+        <v>0.8409</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8320700000000001</v>
+        <v>0.8373699999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01760555783457788</v>
+        <v>0.01097107814007153</v>
       </c>
     </row>
     <row r="17">
@@ -1204,40 +1204,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8633104290365831</v>
+        <v>0.8513350411350312</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8552003471719948</v>
+        <v>0.8518165574746872</v>
       </c>
       <c r="E17" t="n">
-        <v>0.827762753392044</v>
+        <v>0.8305497186194237</v>
       </c>
       <c r="F17" t="n">
-        <v>0.836138880434528</v>
+        <v>0.8402403050579178</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8376853099730457</v>
+        <v>0.8253829503829503</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8500759950603211</v>
+        <v>0.839260944686443</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8141581815574358</v>
+        <v>0.8528012811319853</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8360224586288416</v>
+        <v>0.8215151515151514</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8393665158371041</v>
+        <v>0.8334230796244704</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8535122581880866</v>
+        <v>0.8523559773559773</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8413233129279984</v>
+        <v>0.8398681006984038</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01451076167496174</v>
+        <v>0.0118930353146516</v>
       </c>
     </row>
   </sheetData>
@@ -1336,40 +1336,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7074752528125781</v>
+        <v>0.7157280563903913</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7125879233908254</v>
+        <v>0.7172548612357517</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7082687740282001</v>
+        <v>0.6942024639920105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6849854468141958</v>
+        <v>0.7380937260280123</v>
       </c>
       <c r="G2" t="n">
-        <v>0.690156050126403</v>
+        <v>0.6813681649824341</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6938371421685217</v>
+        <v>0.7067023520257822</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6868562468513357</v>
+        <v>0.6947968571317416</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6697759463873847</v>
+        <v>0.6846280864378531</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6939227836135264</v>
+        <v>0.7241825725986277</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7239820627811726</v>
+        <v>0.7240183643596585</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6971847628974144</v>
+        <v>0.7080975505182263</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01585383506141364</v>
+        <v>0.01883040095656028</v>
       </c>
     </row>
     <row r="3">
@@ -1382,40 +1382,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="D3" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E3" t="n">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="F3" t="n">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="G3" t="n">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H3" t="n">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="I3" t="n">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J3" t="n">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="K3" t="n">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="L3" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M3" t="n">
-        <v>322.9</v>
+        <v>331.2</v>
       </c>
       <c r="N3" t="n">
-        <v>9.036346360977735</v>
+        <v>7.627435858647241</v>
       </c>
     </row>
     <row r="4">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D4" t="n">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E4" t="n">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="F4" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G4" t="n">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H4" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I4" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J4" t="n">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K4" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L4" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" t="n">
-        <v>179.9</v>
+        <v>175.8</v>
       </c>
       <c r="N4" t="n">
-        <v>8.020113604072092</v>
+        <v>6.729701991090606</v>
       </c>
     </row>
     <row r="5">
@@ -1474,40 +1474,40 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
         <v>41</v>
       </c>
-      <c r="D5" t="n">
-        <v>41</v>
-      </c>
-      <c r="E5" t="n">
-        <v>63</v>
-      </c>
-      <c r="F5" t="n">
-        <v>59</v>
-      </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I5" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J5" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K5" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="L5" t="n">
         <v>47</v>
       </c>
       <c r="M5" t="n">
-        <v>51.3</v>
+        <v>50.2</v>
       </c>
       <c r="N5" t="n">
-        <v>9.019115502334165</v>
+        <v>7.539525478731698</v>
       </c>
     </row>
     <row r="6">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K6" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L6" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M6" t="n">
-        <v>40.9</v>
+        <v>37.8</v>
       </c>
       <c r="N6" t="n">
-        <v>4.458450154232722</v>
+        <v>6.37355648144913</v>
       </c>
     </row>
     <row r="7">
@@ -1566,40 +1566,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8605042016806723</v>
+        <v>0.8621848739495799</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8588235294117647</v>
+        <v>0.8504201680672269</v>
       </c>
       <c r="E7" t="n">
-        <v>0.838655462184874</v>
+        <v>0.8487394957983193</v>
       </c>
       <c r="F7" t="n">
-        <v>0.826890756302521</v>
+        <v>0.8689075630252101</v>
       </c>
       <c r="G7" t="n">
-        <v>0.826890756302521</v>
+        <v>0.8436974789915966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.853781512605042</v>
+        <v>0.8672268907563025</v>
       </c>
       <c r="I7" t="n">
+        <v>0.8403361344537815</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8252100840336134</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.8420168067226891</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.826890756302521</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.853781512605042</v>
-      </c>
       <c r="L7" t="n">
-        <v>0.8621848739495799</v>
+        <v>0.8722689075630252</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8450420168067225</v>
+        <v>0.8521008403361343</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01458305380708031</v>
+        <v>0.01515714202629546</v>
       </c>
     </row>
     <row r="8">
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.888283378746594</v>
+        <v>0.8909090909090909</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8891891891891892</v>
+        <v>0.8556701030927835</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8306451612903226</v>
+        <v>0.8694516971279374</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8396739130434783</v>
+        <v>0.8900804289544236</v>
       </c>
       <c r="G8" t="n">
-        <v>0.845360824742268</v>
+        <v>0.8430379746835444</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8791208791208791</v>
+        <v>0.8941798941798942</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8508997429305912</v>
+        <v>0.856020942408377</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8445040214477212</v>
+        <v>0.8613333333333333</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8867924528301887</v>
+        <v>0.8471849865951743</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8763157894736842</v>
+        <v>0.8769633507853403</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8630785352814916</v>
+        <v>0.8684831802069898</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02289816796674227</v>
+        <v>0.01878004027035013</v>
       </c>
     </row>
     <row r="9">
@@ -1658,40 +1658,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8858695652173914</v>
+        <v>0.8955613577023499</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8844086021505376</v>
+        <v>0.9095890410958904</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9035087719298246</v>
+        <v>0.8927613941018767</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8753541076487252</v>
+        <v>0.8997289972899729</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8840970350404312</v>
+        <v>0.9148351648351648</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8815426997245179</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9019073569482289</v>
+        <v>0.8910081743869209</v>
       </c>
       <c r="J9" t="n">
-        <v>0.875</v>
+        <v>0.8613333333333333</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8796791443850267</v>
+        <v>0.8951841359773371</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9048913043478261</v>
+        <v>0.9203296703296703</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8876258587392509</v>
+        <v>0.8976882993190447</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01150060343596708</v>
+        <v>0.01617648263887183</v>
       </c>
     </row>
     <row r="10">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8194</v>
+        <v>0.8018999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8161</v>
+        <v>0.7565</v>
       </c>
       <c r="E10" t="n">
-        <v>0.751</v>
+        <v>0.7748</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7562</v>
+        <v>0.8186</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7321</v>
+        <v>0.7316</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8103</v>
+        <v>0.8165</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7456</v>
+        <v>0.7588</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7532</v>
+        <v>0.7635999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7645</v>
       </c>
       <c r="L10" t="n">
-        <v>0.793</v>
+        <v>0.7965</v>
       </c>
       <c r="M10" t="n">
-        <v>0.77869</v>
+        <v>0.77833</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0340407419295043</v>
+        <v>0.02872606443245885</v>
       </c>
     </row>
     <row r="11">
@@ -1750,40 +1750,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8870748299319728</v>
+        <v>0.8932291666666666</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8867924528301887</v>
+        <v>0.8818061088977424</v>
       </c>
       <c r="E11" t="n">
-        <v>0.865546218487395</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.8948787061994609</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8642951251646903</v>
+        <v>0.8774703557312253</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8803301237964236</v>
+        <v>0.895364238410596</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8756613756613756</v>
+        <v>0.8731642189586115</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8594815825375171</v>
+        <v>0.8613333333333333</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8832214765100671</v>
+        <v>0.8705234159779616</v>
       </c>
       <c r="L11" t="n">
-        <v>0.890374331550802</v>
+        <v>0.8981233243967828</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8749920373613289</v>
+        <v>0.8826845249524762</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01238879589423175</v>
+        <v>0.01240242299965265</v>
       </c>
     </row>
     <row r="12">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.86056259866584</v>
+        <v>0.8620377446002098</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8589483906770256</v>
+        <v>0.8487682764445682</v>
       </c>
       <c r="E12" t="n">
-        <v>0.836960666619589</v>
+        <v>0.8479972634214976</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8259232051029367</v>
+        <v>0.8686756778182971</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8254154099668902</v>
+        <v>0.8412683393653124</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8537241721921015</v>
+        <v>0.8671622071984767</v>
       </c>
       <c r="I12" t="n">
-        <v>0.840311321661281</v>
+        <v>0.8392195329400117</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8259636649654205</v>
+        <v>0.8252100840336134</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8539799842718174</v>
+        <v>0.8407880735651343</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8614195493088226</v>
+        <v>0.8712207555292241</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8443208963431724</v>
+        <v>0.8512347954916345</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01511059255781218</v>
+        <v>0.01535031974179566</v>
       </c>
     </row>
     <row r="13">
@@ -1842,40 +1842,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8523286237571952</v>
+        <v>0.8494581852290679</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8496462264150944</v>
+        <v>0.8390723908333106</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8319327731092437</v>
+        <v>0.8367895545314901</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8187633262260128</v>
+        <v>0.860385781671159</v>
       </c>
       <c r="G13" t="n">
-        <v>0.812658003417612</v>
+        <v>0.8308465467751254</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8462125780969159</v>
+        <v>0.8568775215041486</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8295357569551117</v>
+        <v>0.8288723589124123</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8170493251856076</v>
+        <v>0.8124848484848485</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8438579292662696</v>
+        <v>0.8339686045407049</v>
       </c>
       <c r="L13" t="n">
-        <v>0.852426984779926</v>
+        <v>0.8634760766128058</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8354411527208988</v>
+        <v>0.8412231869095074</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01543811500781207</v>
+        <v>0.01611862697607143</v>
       </c>
     </row>
     <row r="14">
@@ -1888,40 +1888,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8526264125646428</v>
+        <v>0.8487240750775901</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8502760499541926</v>
+        <v>0.8330553901131625</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8272484571111574</v>
+        <v>0.8337680844383257</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8157762273780816</v>
+        <v>0.8591565340432166</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8081199460916442</v>
+        <v>0.8232184482184481</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8459437636553624</v>
+        <v>0.8565327428029105</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8237606960179741</v>
+        <v>0.8248900521057412</v>
       </c>
       <c r="J14" t="n">
-        <v>0.814095744680851</v>
+        <v>0.8124848484848485</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8448169477581242</v>
+        <v>0.8298234729473463</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8489214230990232</v>
+        <v>0.8584332334332334</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8331585668311053</v>
+        <v>0.8380086881664823</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0171126035483291</v>
+        <v>0.01658039465782803</v>
       </c>
     </row>
     <row r="15">
@@ -1934,40 +1934,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7046625917938738</v>
+        <v>0.6989389320353773</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6993139949247457</v>
+        <v>0.681013587476935</v>
       </c>
       <c r="E15" t="n">
-        <v>0.668431665488907</v>
+        <v>0.6741218245846381</v>
       </c>
       <c r="F15" t="n">
-        <v>0.638656924484489</v>
+        <v>0.720858903728648</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6268443811364911</v>
+        <v>0.6669131375112941</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6924303971685167</v>
+        <v>0.7137605999332424</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6616771930523014</v>
+        <v>0.65893925702568</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6349599407023545</v>
+        <v>0.624969696969697</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6877642111268034</v>
+        <v>0.6700013666898205</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7056404048061037</v>
+        <v>0.7287414363863784</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6720381704684587</v>
+        <v>0.6838258742341712</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03028113258384408</v>
+        <v>0.03193043452873535</v>
       </c>
     </row>
     <row r="16">
@@ -1980,40 +1980,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8158</v>
+        <v>0.8095</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8089</v>
+        <v>0.8406</v>
       </c>
       <c r="E16" t="n">
-        <v>0.852</v>
+        <v>0.8113</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8062</v>
+        <v>0.8333</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7923</v>
+        <v>0.845</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8139</v>
+        <v>0.8203</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8252</v>
+        <v>0.8122</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7973</v>
+        <v>0.7635999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7991</v>
+        <v>0.8333</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8372000000000001</v>
+        <v>0.8638</v>
       </c>
       <c r="M16" t="n">
-        <v>0.81479</v>
+        <v>0.8232900000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01874782654069532</v>
+        <v>0.02716445594276954</v>
       </c>
     </row>
     <row r="17">
@@ -2026,40 +2026,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8526264125646428</v>
+        <v>0.84872407507759</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8502760499541926</v>
+        <v>0.8330553901131625</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8272484571111572</v>
+        <v>0.8337680844383257</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8157762273780816</v>
+        <v>0.8591565340432166</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8081199460916443</v>
+        <v>0.8232184482184483</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8459437636553624</v>
+        <v>0.8565327428029105</v>
       </c>
       <c r="I17" t="n">
-        <v>0.823760696017974</v>
+        <v>0.8248900521057412</v>
       </c>
       <c r="J17" t="n">
-        <v>0.814095744680851</v>
+        <v>0.8124848484848486</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8448169477581242</v>
+        <v>0.8298234729473463</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8489214230990232</v>
+        <v>0.8584332334332333</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8331585668311053</v>
+        <v>0.8380086881664821</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01711260354832909</v>
+        <v>0.01658039465782797</v>
       </c>
     </row>
   </sheetData>
@@ -2158,40 +2158,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.714082073108778</v>
+        <v>0.7334504426356088</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7253634139081176</v>
+        <v>0.7092492084924249</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7131335668928009</v>
+        <v>0.6857207766580802</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6884986297407505</v>
+        <v>0.7440801383053471</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7049078987709173</v>
+        <v>0.6806018025799097</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7063079298471497</v>
+        <v>0.7159199543872378</v>
       </c>
       <c r="I2" t="n">
-        <v>0.715517957448665</v>
+        <v>0.7045373500357544</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6959185393403534</v>
+        <v>0.6955935969921923</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7200622034051301</v>
+        <v>0.7171511158906652</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7104465509416987</v>
+        <v>0.7152545224445594</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7094238763404361</v>
+        <v>0.710155890842178</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01101135978245721</v>
+        <v>0.01976701452617021</v>
       </c>
     </row>
     <row r="3">
@@ -2204,40 +2204,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="D3" t="n">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E3" t="n">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="F3" t="n">
+        <v>333</v>
+      </c>
+      <c r="G3" t="n">
+        <v>334</v>
+      </c>
+      <c r="H3" t="n">
+        <v>345</v>
+      </c>
+      <c r="I3" t="n">
+        <v>329</v>
+      </c>
+      <c r="J3" t="n">
+        <v>330</v>
+      </c>
+      <c r="K3" t="n">
         <v>319</v>
       </c>
-      <c r="G3" t="n">
-        <v>339</v>
-      </c>
-      <c r="H3" t="n">
-        <v>322</v>
-      </c>
-      <c r="I3" t="n">
-        <v>331</v>
-      </c>
-      <c r="J3" t="n">
-        <v>314</v>
-      </c>
-      <c r="K3" t="n">
-        <v>324</v>
-      </c>
       <c r="L3" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M3" t="n">
-        <v>324.8</v>
+        <v>333.3</v>
       </c>
       <c r="N3" t="n">
-        <v>8.534895690308373</v>
+        <v>8.654478609367523</v>
       </c>
     </row>
     <row r="4">
@@ -2250,40 +2250,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="D4" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E4" t="n">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F4" t="n">
         <v>183</v>
       </c>
       <c r="G4" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H4" t="n">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I4" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J4" t="n">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="K4" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L4" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M4" t="n">
-        <v>180</v>
+        <v>175.2</v>
       </c>
       <c r="N4" t="n">
-        <v>8.472176684759223</v>
+        <v>6.142746399887701</v>
       </c>
     </row>
     <row r="5">
@@ -2296,40 +2296,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>43</v>
+      </c>
+      <c r="G5" t="n">
+        <v>58</v>
+      </c>
+      <c r="H5" t="n">
+        <v>42</v>
+      </c>
+      <c r="I5" t="n">
+        <v>53</v>
+      </c>
+      <c r="J5" t="n">
+        <v>55</v>
+      </c>
+      <c r="K5" t="n">
         <v>59</v>
       </c>
-      <c r="F5" t="n">
-        <v>59</v>
-      </c>
-      <c r="G5" t="n">
-        <v>57</v>
-      </c>
-      <c r="H5" t="n">
-        <v>47</v>
-      </c>
-      <c r="I5" t="n">
-        <v>56</v>
-      </c>
-      <c r="J5" t="n">
-        <v>56</v>
-      </c>
-      <c r="K5" t="n">
-        <v>45</v>
-      </c>
       <c r="L5" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M5" t="n">
-        <v>51.2</v>
+        <v>50.8</v>
       </c>
       <c r="N5" t="n">
-        <v>8.270429251254134</v>
+        <v>6.214677966091424</v>
       </c>
     </row>
     <row r="6">
@@ -2342,40 +2342,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" t="n">
+        <v>38</v>
+      </c>
+      <c r="F6" t="n">
+        <v>36</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="n">
+        <v>32</v>
+      </c>
+      <c r="I6" t="n">
+        <v>38</v>
+      </c>
+      <c r="J6" t="n">
+        <v>45</v>
+      </c>
+      <c r="K6" t="n">
+        <v>34</v>
+      </c>
+      <c r="L6" t="n">
         <v>31</v>
       </c>
-      <c r="F6" t="n">
-        <v>34</v>
-      </c>
-      <c r="G6" t="n">
-        <v>32</v>
-      </c>
-      <c r="H6" t="n">
-        <v>41</v>
-      </c>
-      <c r="I6" t="n">
-        <v>36</v>
-      </c>
-      <c r="J6" t="n">
-        <v>46</v>
-      </c>
-      <c r="K6" t="n">
-        <v>50</v>
-      </c>
-      <c r="L6" t="n">
-        <v>39</v>
-      </c>
       <c r="M6" t="n">
-        <v>39</v>
+        <v>35.7</v>
       </c>
       <c r="N6" t="n">
-        <v>6.018490028422596</v>
+        <v>4.498147766951785</v>
       </c>
     </row>
     <row r="7">
@@ -2388,40 +2388,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8638655462184874</v>
+        <v>0.8689075630252101</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8705882352941177</v>
+        <v>0.8420168067226891</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8487394957983193</v>
+        <v>0.8521008403361344</v>
       </c>
       <c r="F7" t="n">
+        <v>0.8672268907563025</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8521008403361344</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8756302521008403</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8470588235294118</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8319327731092437</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.8436974789915966</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.8504201680672269</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8521008403361344</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8453781512605042</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.8285714285714286</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.8403361344537815</v>
-      </c>
       <c r="L7" t="n">
-        <v>0.8403361344537815</v>
+        <v>0.865546218487395</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8484033613445376</v>
+        <v>0.8546218487394956</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01203634644436597</v>
+        <v>0.01408938525485635</v>
       </c>
     </row>
     <row r="8">
@@ -2434,40 +2434,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8880407124681934</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9019073569482289</v>
+        <v>0.8556430446194225</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8405405405405405</v>
+        <v>0.8701298701298701</v>
       </c>
       <c r="F8" t="n">
+        <v>0.8856382978723404</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8520408163265306</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8914728682170543</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.8612565445026178</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.843915343915344</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.8560606060606061</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.8726287262872628</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.8552971576227391</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.8486486486486486</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.8780487804878049</v>
-      </c>
       <c r="L8" t="n">
-        <v>0.8545454545454545</v>
+        <v>0.8717277486910995</v>
       </c>
       <c r="M8" t="n">
-        <v>0.864048150394552</v>
+        <v>0.867700810388533</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02040095306775842</v>
+        <v>0.01643865652398595</v>
       </c>
     </row>
     <row r="9">
@@ -2480,40 +2480,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8913043478260869</v>
+        <v>0.9112271540469974</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8897849462365591</v>
+        <v>0.8931506849315068</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9093567251461988</v>
+        <v>0.8981233243967829</v>
       </c>
       <c r="F9" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9175824175824175</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9151193633952255</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.896457765667575</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.9036827195467422</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.9137466307277629</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.8870523415977961</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9019073569482289</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.8722222222222222</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.8663101604278075</v>
-      </c>
       <c r="L9" t="n">
-        <v>0.8940217391304348</v>
+        <v>0.9148351648351648</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8929389189809841</v>
+        <v>0.9032617618792657</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01522090420718925</v>
+        <v>0.01183202091858162</v>
       </c>
     </row>
     <row r="10">
@@ -2526,40 +2526,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8194</v>
+        <v>0.7925</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8386</v>
+        <v>0.7609</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7668</v>
+        <v>0.7748</v>
       </c>
       <c r="F10" t="n">
+        <v>0.8097</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.7489</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8073</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.7675</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.7562</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.7455000000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.7974</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.7544</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.7617</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.7964</v>
-      </c>
       <c r="L10" t="n">
-        <v>0.7533</v>
+        <v>0.7879</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7789699999999999</v>
+        <v>0.7755699999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03194004974601289</v>
+        <v>0.02268514198030655</v>
       </c>
     </row>
     <row r="11">
@@ -2572,40 +2572,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8900949796472185</v>
+        <v>0.8994845360824743</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8958051420838972</v>
+        <v>0.873994638069705</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8735955056179776</v>
+        <v>0.8839050131926122</v>
       </c>
       <c r="F11" t="n">
+        <v>0.8939597315436242</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8835978835978835</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9031413612565445</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8785046728971962</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.8684210526315789</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.8727770177838576</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.8839634941329857</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.8797814207650273</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.8779840848806366</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.8602739726027396</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.8721399730820997</v>
-      </c>
       <c r="L11" t="n">
-        <v>0.8738379814077025</v>
+        <v>0.8927613941018766</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8780253572004144</v>
+        <v>0.8850547301157352</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01008076076519853</v>
+        <v>0.0118796363096752</v>
       </c>
     </row>
     <row r="12">
@@ -2618,40 +2618,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8638076445994395</v>
+        <v>0.8681689887967738</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8708678018882394</v>
+        <v>0.8408644524399137</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8472834952231093</v>
+        <v>0.8512173910901212</v>
       </c>
       <c r="F12" t="n">
+        <v>0.8668063741596481</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8500687730289248</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8749844514164342</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8459892368162218</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8310842084691894</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.8421136261162011</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.8484377019876903</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.8517382126449262</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.8438824662320578</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.8278822428316174</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.840691882089445</v>
-      </c>
       <c r="L12" t="n">
-        <v>0.8390328589429883</v>
+        <v>0.8644429005570781</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8475737932555715</v>
+        <v>0.8535740402890506</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0123640451239469</v>
+        <v>0.01429328591061214</v>
       </c>
     </row>
     <row r="13">
@@ -2664,40 +2664,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8556435163136755</v>
+        <v>0.8555393694905125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.862536717383412</v>
+        <v>0.8311414631789966</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8426554933947629</v>
+        <v>0.8401006547444543</v>
       </c>
       <c r="F13" t="n">
+        <v>0.858215820827992</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8404164533196791</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8647162205343755</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.836077733273995</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8179314565483475</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.8350813193494452</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.8367808014400153</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.8438208413868804</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.833487455284355</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.8192674210839785</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.8298060044381415</v>
-      </c>
       <c r="L13" t="n">
-        <v>0.8282233385299382</v>
+        <v>0.8562906069608481</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8387302908604604</v>
+        <v>0.8435511098228645</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01294247581049723</v>
+        <v>0.01463904672275907</v>
       </c>
     </row>
     <row r="14">
@@ -2710,40 +2710,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8553438038689907</v>
+        <v>0.8518399921178383</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8641749843290418</v>
+        <v>0.827010125074449</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8380775720592655</v>
+        <v>0.8364490495857788</v>
       </c>
       <c r="F14" t="n">
+        <v>0.8560867688322902</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8332500832500832</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.861229406468255</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8320008126583489</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.8299405333270902</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.8296411725067385</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.8422330673506222</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.8281466609302548</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.8169621749408984</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.8313451254627725</v>
-      </c>
       <c r="L14" t="n">
-        <v>0.8236628519440721</v>
+        <v>0.8513569763569764</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8359527946719746</v>
+        <v>0.839416374767111</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01447717076786892</v>
+        <v>0.01487846809275223</v>
       </c>
     </row>
     <row r="15">
@@ -2756,40 +2756,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7112924157409236</v>
+        <v>0.7116567213796595</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7252096121146896</v>
+        <v>0.6636394139475237</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6893305862479865</v>
+        <v>0.6809891500305708</v>
       </c>
       <c r="F15" t="n">
+        <v>0.7166997537722389</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6851188104225585</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.7300033701666443</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.6733612414633501</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6363961030678927</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.6734183348986102</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.6770305697513527</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.6878311940265078</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.6691312158093728</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.639043606760345</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.6597434950747328</v>
-      </c>
       <c r="L15" t="n">
-        <v>0.6579905828702767</v>
+        <v>0.714354484326724</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6790021613294799</v>
+        <v>0.6885637383475773</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02561247051431785</v>
+        <v>0.02902059055214735</v>
       </c>
     </row>
     <row r="16">
@@ -2802,40 +2802,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.823</v>
+        <v>0.8317</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8202</v>
+        <v>0.8178</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8622</v>
+        <v>0.819</v>
       </c>
       <c r="F16" t="n">
+        <v>0.8356</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8522</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8462</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8216</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.7857</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.8433</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.8391999999999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.8186</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.8269</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.7956</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.7788</v>
-      </c>
       <c r="L16" t="n">
-        <v>0.8143</v>
+        <v>0.8545</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8222100000000001</v>
+        <v>0.8307600000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02363478838962222</v>
+        <v>0.02071978120862607</v>
       </c>
     </row>
     <row r="17">
@@ -2848,40 +2848,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8553438038689907</v>
+        <v>0.8518399921178383</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8641749843290418</v>
+        <v>0.8270101250744492</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8380775720592655</v>
+        <v>0.8364490495857787</v>
       </c>
       <c r="F17" t="n">
+        <v>0.8560867688322901</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8332500832500832</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8612294064682551</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.832000812658349</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.8299405333270902</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.8296411725067386</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.8422330673506221</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.8281466609302548</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.8169621749408983</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.8313451254627726</v>
-      </c>
       <c r="L17" t="n">
-        <v>0.823662851944072</v>
+        <v>0.8513569763569764</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8359527946719746</v>
+        <v>0.839416374767111</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01447717076786893</v>
+        <v>0.01487846809275222</v>
       </c>
     </row>
   </sheetData>
@@ -2980,40 +2980,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6432942233757863</v>
+        <v>0.6619262334320386</v>
       </c>
       <c r="D2" t="n">
-        <v>0.635705598861011</v>
+        <v>0.6783351835221878</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6658744199326768</v>
+        <v>0.6479559914272544</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6468569749856694</v>
+        <v>0.6975427325656856</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6617264856768694</v>
+        <v>0.603395333322442</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6403777499457796</v>
+        <v>0.669008120490179</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6782592239985612</v>
+        <v>0.6633178197004874</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6367959795075597</v>
+        <v>0.6477788370381854</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6693278933160074</v>
+        <v>0.6064254622010702</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6217681108578947</v>
+        <v>0.6409978995461381</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6499986660457816</v>
+        <v>0.6516683613245668</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0179034702591115</v>
+        <v>0.02958444112296013</v>
       </c>
     </row>
     <row r="3">
@@ -3026,40 +3026,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D3" t="n">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="E3" t="n">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="F3" t="n">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="G3" t="n">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H3" t="n">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="I3" t="n">
         <v>334</v>
       </c>
       <c r="J3" t="n">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="K3" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="L3" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M3" t="n">
-        <v>326.2</v>
+        <v>333.8</v>
       </c>
       <c r="N3" t="n">
-        <v>9.199033765685515</v>
+        <v>6.511528238439882</v>
       </c>
     </row>
     <row r="4">
@@ -3072,40 +3072,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D4" t="n">
+        <v>169</v>
+      </c>
+      <c r="E4" t="n">
         <v>170</v>
       </c>
-      <c r="E4" t="n">
-        <v>180</v>
-      </c>
       <c r="F4" t="n">
+        <v>169</v>
+      </c>
+      <c r="G4" t="n">
+        <v>152</v>
+      </c>
+      <c r="H4" t="n">
+        <v>170</v>
+      </c>
+      <c r="I4" t="n">
+        <v>167</v>
+      </c>
+      <c r="J4" t="n">
+        <v>153</v>
+      </c>
+      <c r="K4" t="n">
+        <v>170</v>
+      </c>
+      <c r="L4" t="n">
         <v>176</v>
       </c>
-      <c r="G4" t="n">
-        <v>158</v>
-      </c>
-      <c r="H4" t="n">
-        <v>174</v>
-      </c>
-      <c r="I4" t="n">
-        <v>168</v>
-      </c>
-      <c r="J4" t="n">
-        <v>175</v>
-      </c>
-      <c r="K4" t="n">
-        <v>166</v>
-      </c>
-      <c r="L4" t="n">
-        <v>166</v>
-      </c>
       <c r="M4" t="n">
-        <v>170.8</v>
+        <v>165.7</v>
       </c>
       <c r="N4" t="n">
-        <v>6.460134157533676</v>
+        <v>7.860590874030329</v>
       </c>
     </row>
     <row r="5">
@@ -3118,40 +3118,40 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61</v>
+      </c>
+      <c r="E5" t="n">
         <v>52</v>
       </c>
-      <c r="D5" t="n">
-        <v>53</v>
-      </c>
-      <c r="E5" t="n">
-        <v>73</v>
-      </c>
       <c r="F5" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G5" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H5" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K5" t="n">
+        <v>72</v>
+      </c>
+      <c r="L5" t="n">
         <v>55</v>
       </c>
-      <c r="L5" t="n">
-        <v>61</v>
-      </c>
       <c r="M5" t="n">
-        <v>60.4</v>
+        <v>60.3</v>
       </c>
       <c r="N5" t="n">
-        <v>6.518350166176169</v>
+        <v>9.877584050093761</v>
       </c>
     </row>
     <row r="6">
@@ -3164,40 +3164,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G6" t="n">
         <v>32</v>
       </c>
       <c r="H6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" t="n">
         <v>33</v>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L6" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" t="n">
-        <v>37.6</v>
+        <v>35.2</v>
       </c>
       <c r="N6" t="n">
-        <v>5.125101625008686</v>
+        <v>3.938414796731181</v>
       </c>
     </row>
     <row r="7">
@@ -3210,40 +3210,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8504201680672269</v>
+        <v>0.8436974789915966</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8302521008403362</v>
+        <v>0.8487394957983193</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8218487394957983</v>
+        <v>0.8436974789915966</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8218487394957983</v>
+        <v>0.8453781512605042</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8352941176470589</v>
+        <v>0.8134453781512605</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8403361344537815</v>
+        <v>0.8605042016806723</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8436974789915966</v>
+        <v>0.8420168067226891</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8403361344537815</v>
+        <v>0.826890756302521</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8336134453781513</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8352941176470589</v>
+        <v>0.8470588235294118</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8352941176470587</v>
+        <v>0.8394957983193276</v>
       </c>
       <c r="N7" t="n">
-        <v>0.009068019079125297</v>
+        <v>0.01395509098832623</v>
       </c>
     </row>
     <row r="8">
@@ -3256,40 +3256,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8642297650130548</v>
+        <v>0.8698979591836735</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8594164456233422</v>
+        <v>0.8463476070528967</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8089005235602095</v>
+        <v>0.8645833333333334</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8258575197889182</v>
+        <v>0.8542199488491049</v>
       </c>
       <c r="G8" t="n">
-        <v>0.837037037037037</v>
+        <v>0.8077858880778589</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8489583333333334</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8477157360406091</v>
+        <v>0.8455696202531645</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8441558441558441</v>
+        <v>0.8349753694581281</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8443877551020408</v>
+        <v>0.856396866840731</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8437801816797246</v>
+        <v>0.8473026200584213</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01655742120972963</v>
+        <v>0.02234593002418279</v>
       </c>
     </row>
     <row r="9">
@@ -3302,40 +3302,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8994565217391305</v>
+        <v>0.8903394255874674</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9205479452054794</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9035087719298246</v>
+        <v>0.8900804289544236</v>
       </c>
       <c r="F9" t="n">
-        <v>0.886685552407932</v>
+        <v>0.9051490514905149</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9137466307277629</v>
+        <v>0.9120879120879121</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8980716253443526</v>
+        <v>0.9071618037135278</v>
       </c>
       <c r="I9" t="n">
         <v>0.9100817438692098</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9027777777777778</v>
+        <v>0.904</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.9065155807365439</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8994565217391305</v>
+        <v>0.9010989010989011</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8967105828647075</v>
+        <v>0.9047062792743981</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01307376877113023</v>
+        <v>0.009295612534485312</v>
       </c>
     </row>
     <row r="10">
@@ -3348,40 +3348,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7709</v>
+        <v>0.7594</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7623</v>
+        <v>0.7348</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7115</v>
+        <v>0.7658</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7272999999999999</v>
+        <v>0.7478</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7054</v>
+        <v>0.658</v>
       </c>
       <c r="H10" t="n">
-        <v>0.75</v>
+        <v>0.7798</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7368</v>
+        <v>0.7325</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7447</v>
+        <v>0.6955</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7511</v>
+        <v>0.7025</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7313</v>
+        <v>0.7619</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7391300000000001</v>
+        <v>0.7337999999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02094028812281881</v>
+        <v>0.03797057340157566</v>
       </c>
     </row>
     <row r="11">
@@ -3394,40 +3394,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8814913448735019</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8651535380507344</v>
+        <v>0.8818897637795274</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8535911602209946</v>
+        <v>0.8771466314398945</v>
       </c>
       <c r="F11" t="n">
-        <v>0.855191256830601</v>
+        <v>0.8789473684210526</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8737113402061856</v>
+        <v>0.856774193548387</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8728246318607764</v>
+        <v>0.8917861799217731</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8777923784494086</v>
+        <v>0.8766404199475066</v>
       </c>
       <c r="J11" t="n">
-        <v>0.87248322147651</v>
+        <v>0.8681177976952625</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.8590604026845639</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8710526315789473</v>
+        <v>0.8781793842034806</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8692856720938964</v>
+        <v>0.8748542141641449</v>
       </c>
       <c r="N11" t="n">
-        <v>0.008999522612254609</v>
+        <v>0.01064913582130549</v>
       </c>
     </row>
     <row r="12">
@@ -3440,40 +3440,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8493585105453724</v>
+        <v>0.8429101954034627</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8298563929354563</v>
+        <v>0.8462609710894439</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8191240681889146</v>
+        <v>0.8428477314698155</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8199559328348707</v>
+        <v>0.8436606564290342</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8321390800455847</v>
+        <v>0.8085382592990558</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8387960476692512</v>
+        <v>0.8595428170065958</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8415516461585875</v>
+        <v>0.8397517105304113</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8385301183289091</v>
+        <v>0.823765968324098</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8326958827513655</v>
+        <v>0.820415459751505</v>
       </c>
       <c r="L12" t="n">
-        <v>0.833298293613651</v>
+        <v>0.8457240816494856</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8335305973071965</v>
+        <v>0.8373417850952908</v>
       </c>
       <c r="N12" t="n">
-        <v>0.009283118778705489</v>
+        <v>0.01509306498423532</v>
       </c>
     </row>
     <row r="13">
@@ -3486,40 +3486,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.83937892983994</v>
+        <v>0.8279518072289157</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8180642973700383</v>
+        <v>0.8358046949738759</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8130616745310981</v>
+        <v>0.8311830154890004</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8118751043978333</v>
+        <v>0.8324969400244797</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8184981821803875</v>
+        <v>0.7946521570151573</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8291888396324198</v>
+        <v>0.8477843429159693</v>
       </c>
       <c r="I13" t="n">
-        <v>0.830504580833096</v>
+        <v>0.8285071258616037</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8295000377045472</v>
+        <v>0.8081420284319834</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8199334207606174</v>
+        <v>0.8115526732523943</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8215728274173806</v>
+        <v>0.8363808884900021</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8231577894667357</v>
+        <v>0.8254455673683381</v>
       </c>
       <c r="N13" t="n">
-        <v>0.008714567602007848</v>
+        <v>0.01586354065665049</v>
       </c>
     </row>
     <row r="14">
@@ -3532,40 +3532,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8351908159356445</v>
+        <v>0.8248866939258092</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8166497902502532</v>
+        <v>0.8276652769505658</v>
       </c>
       <c r="E14" t="n">
-        <v>0.807485611261355</v>
+        <v>0.8279230973600946</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8069791398403297</v>
+        <v>0.8264683310549921</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8095518867924529</v>
+        <v>0.7850482850482851</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8240358126721763</v>
+        <v>0.8434891587374979</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8234619245661838</v>
+        <v>0.8212689421100434</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8237293144208038</v>
+        <v>0.7997272727272727</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8167420814479638</v>
+        <v>0.8044974597897596</v>
       </c>
       <c r="L14" t="n">
-        <v>0.815367027389389</v>
+        <v>0.8315018315018314</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8179193404576551</v>
+        <v>0.8192476349206151</v>
       </c>
       <c r="N14" t="n">
-        <v>0.008871102320469745</v>
+        <v>0.01744887139560137</v>
       </c>
     </row>
     <row r="15">
@@ -3578,40 +3578,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6799729350162398</v>
+        <v>0.6563540741668125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6362593535819315</v>
+        <v>0.6772404951184343</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6341713587151616</v>
+        <v>0.6630191409049661</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6271730896589072</v>
+        <v>0.6676286955925885</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6433837727395723</v>
+        <v>0.6011395300457183</v>
       </c>
       <c r="H15" t="n">
-        <v>0.660713943613198</v>
+        <v>0.6965185991108171</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6649783069497134</v>
+        <v>0.6612803973065711</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6623037172718959</v>
+        <v>0.6215689522349432</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6405126152203485</v>
+        <v>0.6309829916424006</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6462373659412016</v>
+        <v>0.6746915828883577</v>
       </c>
       <c r="M15" t="n">
-        <v>0.649570645870817</v>
+        <v>0.6550424459011609</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01665137479191904</v>
+        <v>0.02880324724085005</v>
       </c>
     </row>
     <row r="16">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8255</v>
+        <v>0.7931</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7798</v>
+        <v>0.8535</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8451</v>
+        <v>0.8057</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8148</v>
+        <v>0.8284</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8316</v>
+        <v>0.8260999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8246</v>
+        <v>0.8293</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8358</v>
+        <v>0.835</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8333</v>
+        <v>0.8095</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7905</v>
+        <v>0.8374</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8177</v>
+        <v>0.8302</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8198700000000001</v>
+        <v>0.8248200000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02044222481912268</v>
+        <v>0.01749392275429766</v>
       </c>
     </row>
     <row r="17">
@@ -3670,40 +3670,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8351908159356445</v>
+        <v>0.8248866939258092</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8166497902502532</v>
+        <v>0.8276652769505658</v>
       </c>
       <c r="E17" t="n">
-        <v>0.807485611261355</v>
+        <v>0.8279230973600946</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8069791398403297</v>
+        <v>0.8264683310549918</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8095518867924528</v>
+        <v>0.7850482850482849</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8240358126721763</v>
+        <v>0.8434891587374979</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8234619245661839</v>
+        <v>0.8212689421100434</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8237293144208039</v>
+        <v>0.7997272727272727</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8167420814479638</v>
+        <v>0.8044974597897596</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8153670273893889</v>
+        <v>0.8315018315018314</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8179193404576551</v>
+        <v>0.8192476349206151</v>
       </c>
       <c r="N17" t="n">
-        <v>0.008871102320469774</v>
+        <v>0.01744887139560138</v>
       </c>
     </row>
   </sheetData>
@@ -3802,40 +3802,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7131912685091886</v>
+        <v>0.72010209489634</v>
       </c>
       <c r="D2" t="n">
-        <v>0.718416901842487</v>
+        <v>0.7124496474885167</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7085307824415166</v>
+        <v>0.6903280586029271</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6781311834120939</v>
+        <v>0.7304729217250441</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7169598584287274</v>
+        <v>0.6726559358614381</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6939056770153782</v>
+        <v>0.7220355160122819</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7218677273948818</v>
+        <v>0.6933803651485768</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7011081376025434</v>
+        <v>0.6957432536637369</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7142656894147732</v>
+        <v>0.7026834022216797</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7193601202279307</v>
+        <v>0.7180444486767132</v>
       </c>
       <c r="M2" t="n">
-        <v>0.708573734628952</v>
+        <v>0.7057895644297254</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0137906939723273</v>
+        <v>0.01787004578682214</v>
       </c>
     </row>
     <row r="3">
@@ -3848,40 +3848,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="D3" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E3" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="F3" t="n">
+        <v>336</v>
+      </c>
+      <c r="G3" t="n">
+        <v>337</v>
+      </c>
+      <c r="H3" t="n">
+        <v>344</v>
+      </c>
+      <c r="I3" t="n">
+        <v>328</v>
+      </c>
+      <c r="J3" t="n">
+        <v>331</v>
+      </c>
+      <c r="K3" t="n">
         <v>317</v>
       </c>
-      <c r="G3" t="n">
-        <v>336</v>
-      </c>
-      <c r="H3" t="n">
-        <v>323</v>
-      </c>
-      <c r="I3" t="n">
-        <v>331</v>
-      </c>
-      <c r="J3" t="n">
-        <v>321</v>
-      </c>
-      <c r="K3" t="n">
-        <v>327</v>
-      </c>
       <c r="L3" t="n">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="M3" t="n">
-        <v>326.1</v>
+        <v>335.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8.556349169541358</v>
+        <v>8.279157230325103</v>
       </c>
     </row>
     <row r="4">
@@ -3894,40 +3894,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D4" t="n">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E4" t="n">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="F4" t="n">
         <v>181</v>
       </c>
       <c r="G4" t="n">
+        <v>169</v>
+      </c>
+      <c r="H4" t="n">
+        <v>174</v>
+      </c>
+      <c r="I4" t="n">
         <v>170</v>
       </c>
-      <c r="H4" t="n">
-        <v>191</v>
-      </c>
-      <c r="I4" t="n">
-        <v>169</v>
-      </c>
       <c r="J4" t="n">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="K4" t="n">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L4" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M4" t="n">
-        <v>181.1</v>
+        <v>173.6</v>
       </c>
       <c r="N4" t="n">
-        <v>8.006247560499238</v>
+        <v>7.426678635537932</v>
       </c>
     </row>
     <row r="5">
@@ -3940,40 +3940,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
+        <v>60</v>
+      </c>
+      <c r="E5" t="n">
+        <v>49</v>
+      </c>
+      <c r="F5" t="n">
         <v>45</v>
       </c>
-      <c r="E5" t="n">
-        <v>61</v>
-      </c>
-      <c r="F5" t="n">
-        <v>61</v>
-      </c>
       <c r="G5" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H5" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I5" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K5" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="L5" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M5" t="n">
-        <v>50.1</v>
+        <v>52.4</v>
       </c>
       <c r="N5" t="n">
-        <v>8.372574275573792</v>
+        <v>7.026932316294058</v>
       </c>
     </row>
     <row r="6">
@@ -3986,40 +3986,40 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E6" t="n">
         <v>33</v>
       </c>
-      <c r="D6" t="n">
-        <v>37</v>
-      </c>
-      <c r="E6" t="n">
-        <v>32</v>
-      </c>
       <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>27</v>
+      </c>
+      <c r="H6" t="n">
+        <v>33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>39</v>
+      </c>
+      <c r="J6" t="n">
+        <v>44</v>
+      </c>
+      <c r="K6" t="n">
         <v>36</v>
       </c>
-      <c r="G6" t="n">
-        <v>35</v>
-      </c>
-      <c r="H6" t="n">
-        <v>40</v>
-      </c>
-      <c r="I6" t="n">
-        <v>36</v>
-      </c>
-      <c r="J6" t="n">
-        <v>39</v>
-      </c>
-      <c r="K6" t="n">
-        <v>47</v>
-      </c>
       <c r="L6" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M6" t="n">
-        <v>37.7</v>
+        <v>33.9</v>
       </c>
       <c r="N6" t="n">
-        <v>4.473378042498879</v>
+        <v>5.646040894093646</v>
       </c>
     </row>
     <row r="7">
@@ -4032,40 +4032,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8789915966386554</v>
+        <v>0.8605042016806723</v>
       </c>
       <c r="D7" t="n">
+        <v>0.8470588235294118</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.8621848739495799</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.8436974789915966</v>
-      </c>
       <c r="F7" t="n">
-        <v>0.8369747899159664</v>
+        <v>0.8689075630252101</v>
       </c>
       <c r="G7" t="n">
         <v>0.8504201680672269</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8638655462184874</v>
+        <v>0.8705882352941177</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8403361344537815</v>
+        <v>0.8369747899159664</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8470588235294118</v>
+        <v>0.8302521008403362</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8453781512605042</v>
+        <v>0.8436974789915966</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8554621848739495</v>
+        <v>0.8789915966386554</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8524369747899158</v>
+        <v>0.8549579831932771</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01284367944507079</v>
+        <v>0.0157869915882054</v>
       </c>
     </row>
     <row r="8">
@@ -4078,40 +4078,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8957219251336899</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="D8" t="n">
-        <v>0.881578947368421</v>
+        <v>0.8477157360406091</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8355795148247979</v>
+        <v>0.8740359897172236</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8386243386243386</v>
+        <v>0.8818897637795275</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8446115288220551</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8873626373626373</v>
+        <v>0.8865979381443299</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8487179487179487</v>
+        <v>0.8497409326424871</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8605898123324397</v>
+        <v>0.8530927835051546</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8790322580645161</v>
+        <v>0.8475935828877005</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8810810810810811</v>
+        <v>0.8782383419689119</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8669826925048332</v>
+        <v>0.8648131982123385</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02106275841305114</v>
+        <v>0.01759132381145847</v>
       </c>
     </row>
     <row r="9">
@@ -4124,40 +4124,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9103260869565217</v>
+        <v>0.9007832898172323</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9005376344086021</v>
+        <v>0.9150684931506849</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9064327485380117</v>
+        <v>0.9115281501340483</v>
       </c>
       <c r="F9" t="n">
+        <v>0.9105691056910569</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9258241758241759</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9124668435013262</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.8937329700272479</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8826666666666667</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.8980169971671388</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.9056603773584906</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.8898071625344353</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9019073569482289</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.8916666666666667</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.8743315508021391</v>
-      </c>
       <c r="L9" t="n">
-        <v>0.8858695652173914</v>
+        <v>0.9313186813186813</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8964556146597624</v>
+        <v>0.9081975373298258</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01102601840073211</v>
+        <v>0.01470866539544931</v>
       </c>
     </row>
     <row r="10">
@@ -4170,40 +4170,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8282</v>
+        <v>0.7877</v>
       </c>
       <c r="D10" t="n">
+        <v>0.7391</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7793</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8008999999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.7316</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.7982</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.7589</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.7479</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.7589</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.8233</v>
-      </c>
       <c r="I10" t="n">
-        <v>0.7412</v>
+        <v>0.7456</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7786999999999999</v>
+        <v>0.7409</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7964</v>
+        <v>0.7645</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8062</v>
+        <v>0.7965</v>
       </c>
       <c r="M10" t="n">
-        <v>0.78379</v>
+        <v>0.7684299999999998</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03121447135900628</v>
+        <v>0.02734394306281048</v>
       </c>
     </row>
     <row r="11">
@@ -4216,40 +4216,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9029649595687331</v>
+        <v>0.8926261319534281</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8909574468085105</v>
+        <v>0.8801054018445322</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8695652173913042</v>
+        <v>0.8923884514435696</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8673050615595076</v>
+        <v>0.896</v>
       </c>
       <c r="G11" t="n">
-        <v>0.883048620236531</v>
+        <v>0.8833551769331586</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8885832187070152</v>
+        <v>0.8993464052287581</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8745046235138706</v>
+        <v>0.8711819389110226</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8758526603001364</v>
+        <v>0.8676277850589776</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8766756032171581</v>
+        <v>0.8720770288858322</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8834688346883469</v>
+        <v>0.904</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8812926245991115</v>
+        <v>0.8858708320259281</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01082303162091276</v>
+        <v>0.01282090888950604</v>
       </c>
     </row>
     <row r="12">
@@ -4262,40 +4262,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8786705248136991</v>
+        <v>0.8599649846257339</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8616593475046677</v>
+        <v>0.8448352718562365</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8421248072649896</v>
+        <v>0.86105576824887</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8353228143362528</v>
+        <v>0.868168678380443</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8489750851040176</v>
+        <v>0.8477205771765768</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8638121603167842</v>
+        <v>0.8698439061899269</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8385211800695275</v>
+        <v>0.8354875225683552</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8462397428335269</v>
+        <v>0.8291141994472627</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8455191307738223</v>
+        <v>0.8424102855838667</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8553382616446823</v>
+        <v>0.8777411764705881</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8516183054661969</v>
+        <v>0.853634237054786</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01331454084681667</v>
+        <v>0.01605272948565672</v>
       </c>
     </row>
     <row r="13">
@@ -4308,40 +4308,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8711253369272237</v>
+        <v>0.8467926822836684</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8518714174681821</v>
+        <v>0.8344842554466281</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8372983319660924</v>
+        <v>0.8503998331984203</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8279880427623246</v>
+        <v>0.8593636363636363</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8377947063886617</v>
+        <v>0.8374621317921063</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8568186071936804</v>
+        <v>0.8590849673202614</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8275525427038175</v>
+        <v>0.8246069877621475</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8383639669115561</v>
+        <v>0.8155469136067721</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8347341980049754</v>
+        <v>0.8356065490001514</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8466016739813417</v>
+        <v>0.8701818181818182</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8430148824307857</v>
+        <v>0.843352977495561</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01369129306825922</v>
+        <v>0.01694129047465413</v>
       </c>
     </row>
     <row r="14">
@@ -4354,40 +4354,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8692599597778203</v>
+        <v>0.844259569436918</v>
       </c>
       <c r="D14" t="n">
-        <v>0.849371956217754</v>
+        <v>0.8270994639666468</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8326630145852114</v>
+        <v>0.8454037147066638</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8229754407323298</v>
+        <v>0.8557270307216347</v>
       </c>
       <c r="G14" t="n">
-        <v>0.832294474393531</v>
+        <v>0.8287129537129537</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8565415123017004</v>
+        <v>0.8553159905580026</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8215677135618338</v>
+        <v>0.8196735025574836</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8351950354609929</v>
+        <v>0.8117878787878788</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8353558206499383</v>
+        <v>0.8312399035422471</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8460184830492243</v>
+        <v>0.8639277389277389</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8401243410730336</v>
+        <v>0.8383147746918169</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01505956815621913</v>
+        <v>0.01716925802015067</v>
       </c>
     </row>
     <row r="15">
@@ -4400,40 +4400,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7424498326651854</v>
+        <v>0.6938635924389915</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7040944328940295</v>
+        <v>0.6735565110966083</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6788860177222362</v>
+        <v>0.7022301824902016</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6592023760096541</v>
+        <v>0.7195233480920625</v>
       </c>
       <c r="G15" t="n">
-        <v>0.677571055021534</v>
+        <v>0.6816932798528165</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7136425249049381</v>
+        <v>0.7188572131008164</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6579511569724251</v>
+        <v>0.6511338831670278</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6776131910233143</v>
+        <v>0.631997211015107</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6694896706076615</v>
+        <v>0.6734971199530123</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6932246710600988</v>
+        <v>0.743079091140188</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6874124928881077</v>
+        <v>0.6889431432346831</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02641502402591698</v>
+        <v>0.03360179482524184</v>
       </c>
     </row>
     <row r="16">
@@ -4446,40 +4446,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8507</v>
+        <v>0.8146</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8279</v>
+        <v>0.8458</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8571</v>
+        <v>0.8398</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8341</v>
+        <v>0.8458</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8293</v>
+        <v>0.8622</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8268</v>
+        <v>0.8406</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8244</v>
+        <v>0.8134</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8243</v>
+        <v>0.7874</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7892</v>
+        <v>0.8371</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8133</v>
+        <v>0.8804</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8277100000000001</v>
+        <v>0.8367099999999998</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01870766034424282</v>
+        <v>0.02627277636219243</v>
       </c>
     </row>
     <row r="17">
@@ -4492,40 +4492,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8692599597778203</v>
+        <v>0.844259569436918</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8493719562177539</v>
+        <v>0.8270994639666468</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8326630145852114</v>
+        <v>0.8454037147066639</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8229754407323298</v>
+        <v>0.8557270307216347</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8322944743935309</v>
+        <v>0.8287129537129537</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8565415123017004</v>
+        <v>0.8553159905580027</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8215677135618337</v>
+        <v>0.8196735025574835</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8351950354609928</v>
+        <v>0.8117878787878788</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8353558206499384</v>
+        <v>0.8312399035422471</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8460184830492243</v>
+        <v>0.8639277389277389</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8401243410730336</v>
+        <v>0.8383147746918169</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01505956815621914</v>
+        <v>0.0171692580201507</v>
       </c>
     </row>
   </sheetData>
